--- a/controllers/CL_TEST_8_action 5/data/NO_CL_1_0/NO_CL_1_0_TEST_complex/NO_CL_1_0_TEST_complex_Test_Result.xlsx
+++ b/controllers/CL_TEST_8_action 5/data/NO_CL_1_0/NO_CL_1_0_TEST_complex/NO_CL_1_0_TEST_complex_Test_Result.xlsx
@@ -448,13 +448,13 @@
         <v>400</v>
       </c>
       <c r="B2" t="n">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
     </row>
     <row r="5">
       <c r="B5" t="n">
-        <v>0.975</v>
+        <v>0.985</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005</v>
+        <v>0.0025</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02</v>
+        <v>0.0125</v>
       </c>
     </row>
   </sheetData>
